--- a/GitHubPages/templates/All_In_One_Template.xlsx
+++ b/GitHubPages/templates/All_In_One_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stations" sheetId="2" r:id="rId1"/>
@@ -207,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,15 +286,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -306,43 +308,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -350,61 +355,55 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -711,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,52 +724,52 @@
     <col min="6" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -782,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +802,7 @@
     <col min="13" max="13" width="13.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" style="1" customWidth="1"/>
     <col min="15" max="15" width="39.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10" style="5" customWidth="1"/>
     <col min="17" max="19" width="10.5703125" style="1" customWidth="1"/>
     <col min="20" max="20" width="21" style="1" customWidth="1"/>
     <col min="21" max="21" width="17.140625" style="1" customWidth="1"/>
@@ -811,115 +810,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="27" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="25" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
     </row>
     <row r="2" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="17" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
@@ -936,11 +940,6 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -961,11 +960,11 @@
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
